--- a/data/pca/factorExposure/factorExposure_2017-08-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-08-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02405323456630494</v>
+        <v>-0.007793741582177713</v>
       </c>
       <c r="C2">
-        <v>0.00389128316085086</v>
+        <v>-0.04238081715095834</v>
       </c>
       <c r="D2">
-        <v>-0.01880409295100173</v>
+        <v>0.02994463834639279</v>
       </c>
       <c r="E2">
-        <v>-0.009230986243817714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03346010999606733</v>
+      </c>
+      <c r="F2">
+        <v>0.01510173757288219</v>
+      </c>
+      <c r="G2">
+        <v>-0.04808471438309835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01480529254948005</v>
+        <v>-0.05775486379889017</v>
       </c>
       <c r="C3">
-        <v>0.05305652962415201</v>
+        <v>-0.06854569144378798</v>
       </c>
       <c r="D3">
-        <v>-0.008800911272937617</v>
+        <v>0.01449325577489385</v>
       </c>
       <c r="E3">
-        <v>-0.00376908391101164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09668414651592162</v>
+      </c>
+      <c r="F3">
+        <v>0.03694907429728042</v>
+      </c>
+      <c r="G3">
+        <v>-0.104516153052336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02311444617059556</v>
+        <v>-0.0572217778092267</v>
       </c>
       <c r="C4">
-        <v>0.02185063774451891</v>
+        <v>-0.06289705717046301</v>
       </c>
       <c r="D4">
-        <v>-0.06303555983462406</v>
+        <v>0.02337477767138035</v>
       </c>
       <c r="E4">
-        <v>0.01625949273775891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01774445898739811</v>
+      </c>
+      <c r="F4">
+        <v>0.00653556421810365</v>
+      </c>
+      <c r="G4">
+        <v>-0.05984691769227691</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01485948742211242</v>
+        <v>-0.03927777407545988</v>
       </c>
       <c r="C6">
-        <v>0.01217574179713792</v>
+        <v>-0.04977901963996281</v>
       </c>
       <c r="D6">
-        <v>-0.08847874923103334</v>
+        <v>0.01561269169702549</v>
       </c>
       <c r="E6">
-        <v>0.009264099680546199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01729842427557746</v>
+      </c>
+      <c r="F6">
+        <v>0.01338200308934941</v>
+      </c>
+      <c r="G6">
+        <v>-0.03625074270611901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01059625198220353</v>
+        <v>-0.01779273415124666</v>
       </c>
       <c r="C7">
-        <v>0.005700901407556518</v>
+        <v>-0.03656002425616022</v>
       </c>
       <c r="D7">
-        <v>-0.03049032000546664</v>
+        <v>0.0132826559931285</v>
       </c>
       <c r="E7">
-        <v>0.07653543119707705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.008667638519039346</v>
+      </c>
+      <c r="F7">
+        <v>0.001594197128577358</v>
+      </c>
+      <c r="G7">
+        <v>-0.102595303643341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0001002976043307487</v>
+        <v>-1.837344039061124e-05</v>
       </c>
       <c r="C8">
-        <v>0.0005355111288365855</v>
+        <v>-0.02004092779411903</v>
       </c>
       <c r="D8">
-        <v>-0.006390291573717094</v>
+        <v>0.003846066505028687</v>
       </c>
       <c r="E8">
-        <v>0.008035209647387617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02308284544325626</v>
+      </c>
+      <c r="F8">
+        <v>0.0188675857662592</v>
+      </c>
+      <c r="G8">
+        <v>-0.03328233353811285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01608267333374081</v>
+        <v>-0.03409274164505903</v>
       </c>
       <c r="C9">
-        <v>0.02334993426196635</v>
+        <v>-0.0442804152105491</v>
       </c>
       <c r="D9">
-        <v>-0.04785764551798501</v>
+        <v>0.0161328907355109</v>
       </c>
       <c r="E9">
-        <v>0.006801562674331593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01279940832661586</v>
+      </c>
+      <c r="F9">
+        <v>0.01361513841841786</v>
+      </c>
+      <c r="G9">
+        <v>-0.05722066580118576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01732175510981041</v>
+        <v>-0.08924973795838526</v>
       </c>
       <c r="C10">
-        <v>0.1597806797834731</v>
+        <v>0.1854115891950631</v>
       </c>
       <c r="D10">
-        <v>0.1199389887110277</v>
+        <v>-0.01729922552158553</v>
       </c>
       <c r="E10">
-        <v>0.01269704312353899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01033657732825908</v>
+      </c>
+      <c r="F10">
+        <v>-0.01720039288473976</v>
+      </c>
+      <c r="G10">
+        <v>-0.05052161390990525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005611613016180544</v>
+        <v>-0.03352688326380886</v>
       </c>
       <c r="C11">
-        <v>0.008437376259179702</v>
+        <v>-0.0538902406187845</v>
       </c>
       <c r="D11">
-        <v>-0.0419462040357398</v>
+        <v>0.002442963426097688</v>
       </c>
       <c r="E11">
-        <v>-0.005724642775852755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.007204713943393341</v>
+      </c>
+      <c r="F11">
+        <v>0.02261801645531092</v>
+      </c>
+      <c r="G11">
+        <v>-0.03933929611009761</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006228316088451397</v>
+        <v>-0.03293180477628181</v>
       </c>
       <c r="C12">
-        <v>0.01611533056196519</v>
+        <v>-0.0455561049552911</v>
       </c>
       <c r="D12">
-        <v>-0.04402499301655297</v>
+        <v>0.006222412732472774</v>
       </c>
       <c r="E12">
-        <v>0.002798833322040751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.00150881749464713</v>
+      </c>
+      <c r="F12">
+        <v>0.00527751391418747</v>
+      </c>
+      <c r="G12">
+        <v>-0.03917505605269983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0222567948587963</v>
+        <v>-0.0160306574697799</v>
       </c>
       <c r="C13">
-        <v>0.01607602848212909</v>
+        <v>-0.03160045289767197</v>
       </c>
       <c r="D13">
-        <v>-0.01050388231899069</v>
+        <v>0.02509910531233489</v>
       </c>
       <c r="E13">
-        <v>-0.008900043622686052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02345926015802952</v>
+      </c>
+      <c r="F13">
+        <v>0.0108205024833148</v>
+      </c>
+      <c r="G13">
+        <v>-0.05659985242933459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007673035220274346</v>
+        <v>-0.009122440728630799</v>
       </c>
       <c r="C14">
-        <v>0.01531837590028677</v>
+        <v>-0.02595063709576016</v>
       </c>
       <c r="D14">
-        <v>-0.01249318479744054</v>
+        <v>0.008604605964384809</v>
       </c>
       <c r="E14">
-        <v>0.01429803274172139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.00526618214366449</v>
+      </c>
+      <c r="F14">
+        <v>-0.004925084746304698</v>
+      </c>
+      <c r="G14">
+        <v>-0.058125710479088</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.00138945224877437</v>
+        <v>-0.03369475585338003</v>
       </c>
       <c r="C16">
-        <v>0.01569573101753667</v>
+        <v>-0.04477230942091388</v>
       </c>
       <c r="D16">
-        <v>-0.04647531780897717</v>
+        <v>0.001690865499502282</v>
       </c>
       <c r="E16">
-        <v>0.002781538650024464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.005090146603192858</v>
+      </c>
+      <c r="F16">
+        <v>0.007629830764626474</v>
+      </c>
+      <c r="G16">
+        <v>-0.03998545059732973</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01387281649928293</v>
+        <v>-0.02455637954175379</v>
       </c>
       <c r="C19">
-        <v>0.02546687901511558</v>
+        <v>-0.04870886467808257</v>
       </c>
       <c r="D19">
-        <v>-0.01958320007921862</v>
+        <v>0.01650253241214297</v>
       </c>
       <c r="E19">
-        <v>0.006498159851002785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0536952204095994</v>
+      </c>
+      <c r="F19">
+        <v>0.02044320580628332</v>
+      </c>
+      <c r="G19">
+        <v>-0.06772042226670094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01096536924058921</v>
+        <v>-0.0137781969010903</v>
       </c>
       <c r="C20">
-        <v>0.01045679128774051</v>
+        <v>-0.03346461750306664</v>
       </c>
       <c r="D20">
-        <v>-0.009653141135660199</v>
+        <v>0.01329167073779763</v>
       </c>
       <c r="E20">
-        <v>0.000236620765715805</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02417819299467868</v>
+      </c>
+      <c r="F20">
+        <v>-0.002423624954148843</v>
+      </c>
+      <c r="G20">
+        <v>-0.05540178357070271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01522249291937578</v>
+        <v>-0.01412842022671666</v>
       </c>
       <c r="C21">
-        <v>0.03214916197296214</v>
+        <v>-0.03450910432676731</v>
       </c>
       <c r="D21">
-        <v>-0.01934011531427773</v>
+        <v>0.01698471441237608</v>
       </c>
       <c r="E21">
-        <v>0.01931604236927224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03268876465964925</v>
+      </c>
+      <c r="F21">
+        <v>0.002532904205615781</v>
+      </c>
+      <c r="G21">
+        <v>-0.07987176523090513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004645419880184339</v>
+        <v>-0.02676241004092294</v>
       </c>
       <c r="C24">
-        <v>0.00402113442657539</v>
+        <v>-0.04872218511088634</v>
       </c>
       <c r="D24">
-        <v>-0.0430119773876685</v>
+        <v>0.007297054156830934</v>
       </c>
       <c r="E24">
-        <v>0.001248111801615636</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003143327417102346</v>
+      </c>
+      <c r="F24">
+        <v>0.019591823467581</v>
+      </c>
+      <c r="G24">
+        <v>-0.0431814272179295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.0122348352718627</v>
+        <v>-0.04186781053696696</v>
       </c>
       <c r="C25">
-        <v>0.02343837827564926</v>
+        <v>-0.05491396167232116</v>
       </c>
       <c r="D25">
-        <v>-0.04320692226552551</v>
+        <v>0.0112744581485459</v>
       </c>
       <c r="E25">
-        <v>-3.399308803081478e-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.004781019986426062</v>
+      </c>
+      <c r="F25">
+        <v>0.01216980317347852</v>
+      </c>
+      <c r="G25">
+        <v>-0.04775580383189149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02301072980828483</v>
+        <v>-0.01423596225566773</v>
       </c>
       <c r="C26">
-        <v>0.01153550789684017</v>
+        <v>-0.008779339035271273</v>
       </c>
       <c r="D26">
-        <v>0.00643462954280225</v>
+        <v>0.02335104946267849</v>
       </c>
       <c r="E26">
-        <v>0.00903030968314425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.002753385868766551</v>
+      </c>
+      <c r="F26">
+        <v>-0.003888876183275316</v>
+      </c>
+      <c r="G26">
+        <v>-0.04384896592594524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.03863268927525298</v>
+        <v>-0.1154291008457553</v>
       </c>
       <c r="C28">
-        <v>0.2318046277040726</v>
+        <v>0.234380564746604</v>
       </c>
       <c r="D28">
-        <v>0.1735748579418745</v>
+        <v>-0.008625395673976402</v>
       </c>
       <c r="E28">
-        <v>0.01999883744355297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.00104619435727547</v>
+      </c>
+      <c r="F28">
+        <v>-0.01719181146768956</v>
+      </c>
+      <c r="G28">
+        <v>-0.06423283948859194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.008091506206894897</v>
+        <v>-0.01209684086212641</v>
       </c>
       <c r="C29">
-        <v>0.0201092177186543</v>
+        <v>-0.01986303352265852</v>
       </c>
       <c r="D29">
-        <v>-0.01041435772768151</v>
+        <v>0.007379507323710135</v>
       </c>
       <c r="E29">
-        <v>0.008991929944543585</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.007896395783754085</v>
+      </c>
+      <c r="F29">
+        <v>-0.01393036459587955</v>
+      </c>
+      <c r="G29">
+        <v>-0.04728057444369142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02362688141700329</v>
+        <v>-0.04724133700701528</v>
       </c>
       <c r="C30">
-        <v>0.007653045661644519</v>
+        <v>-0.06272124348924825</v>
       </c>
       <c r="D30">
-        <v>-0.06283753764793215</v>
+        <v>0.02786230619513844</v>
       </c>
       <c r="E30">
-        <v>-0.0529774915951087</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.04462317856747849</v>
+      </c>
+      <c r="F30">
+        <v>0.05261363113212494</v>
+      </c>
+      <c r="G30">
+        <v>-0.03429928536378229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008837648402572371</v>
+        <v>-0.05177748175636811</v>
       </c>
       <c r="C31">
-        <v>0.04288466478616156</v>
+        <v>-0.03258118660764139</v>
       </c>
       <c r="D31">
-        <v>-0.04235321558111614</v>
+        <v>0.00314100850601602</v>
       </c>
       <c r="E31">
-        <v>0.01183664748656525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008127946881233406</v>
+      </c>
+      <c r="F31">
+        <v>-0.03667962657506187</v>
+      </c>
+      <c r="G31">
+        <v>-0.0473113111760722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006169511991771553</v>
+        <v>0.004589540520764178</v>
       </c>
       <c r="C32">
-        <v>0.02120017675457006</v>
+        <v>-0.02782991777898384</v>
       </c>
       <c r="D32">
-        <v>0.003253222964074393</v>
+        <v>-0.003797370346583275</v>
       </c>
       <c r="E32">
-        <v>0.03358669703208318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01589029457497113</v>
+      </c>
+      <c r="F32">
+        <v>0.04542056675923381</v>
+      </c>
+      <c r="G32">
+        <v>-0.06946457312507934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01343643059122437</v>
+        <v>-0.02800946880262451</v>
       </c>
       <c r="C33">
-        <v>0.02698039668675182</v>
+        <v>-0.04641490108689175</v>
       </c>
       <c r="D33">
-        <v>-0.02213352719957866</v>
+        <v>0.01471444535700053</v>
       </c>
       <c r="E33">
-        <v>-0.02250392327694709</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02709874616897898</v>
+      </c>
+      <c r="F33">
+        <v>0.02241506651935471</v>
+      </c>
+      <c r="G33">
+        <v>-0.06121926810047713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004009665770137335</v>
+        <v>-0.04056170962396988</v>
       </c>
       <c r="C34">
-        <v>0.02316375226291929</v>
+        <v>-0.05723015158724058</v>
       </c>
       <c r="D34">
-        <v>-0.04655216898938523</v>
+        <v>-0.0046473330169563</v>
       </c>
       <c r="E34">
-        <v>0.00743305749995739</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004532468675667618</v>
+      </c>
+      <c r="F34">
+        <v>0.02333144708703153</v>
+      </c>
+      <c r="G34">
+        <v>-0.04873712464190354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01305250465915153</v>
+        <v>-0.01376008815926859</v>
       </c>
       <c r="C36">
-        <v>0.02412267444138597</v>
+        <v>-0.008989567744845392</v>
       </c>
       <c r="D36">
-        <v>-0.003087152818677517</v>
+        <v>0.01161387248144053</v>
       </c>
       <c r="E36">
-        <v>0.003303156802237656</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.0007897471042691995</v>
+      </c>
+      <c r="F36">
+        <v>-0.00522983749302075</v>
+      </c>
+      <c r="G36">
+        <v>-0.03951617363999864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.003669579204991331</v>
+        <v>-0.03228514877692313</v>
       </c>
       <c r="C38">
-        <v>0.03832341317722145</v>
+        <v>-0.02799294530971233</v>
       </c>
       <c r="D38">
-        <v>-0.03139893583111093</v>
+        <v>-0.007608861355449995</v>
       </c>
       <c r="E38">
-        <v>0.003109021345883629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003082950608247476</v>
+      </c>
+      <c r="F38">
+        <v>-0.01156141010523096</v>
+      </c>
+      <c r="G38">
+        <v>-0.04600497751560743</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005418021141812027</v>
+        <v>-0.03339649381612517</v>
       </c>
       <c r="C39">
-        <v>-0.01515207681248885</v>
+        <v>-0.0813560033292072</v>
       </c>
       <c r="D39">
-        <v>-0.09258619266433074</v>
+        <v>0.01230356220956139</v>
       </c>
       <c r="E39">
-        <v>-0.006252333812907022</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02193179655297153</v>
+      </c>
+      <c r="F39">
+        <v>0.03178665463611384</v>
+      </c>
+      <c r="G39">
+        <v>-0.04354160751682032</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01231976029042644</v>
+        <v>-0.01944158698564953</v>
       </c>
       <c r="C40">
-        <v>0.02456420155946807</v>
+        <v>-0.03088805131832778</v>
       </c>
       <c r="D40">
-        <v>-0.03037313130092151</v>
+        <v>0.01341131520446753</v>
       </c>
       <c r="E40">
-        <v>-0.00112494010221064</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01958201940249698</v>
+      </c>
+      <c r="F40">
+        <v>0.01349968319056847</v>
+      </c>
+      <c r="G40">
+        <v>-0.04402990409194203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006056849283412995</v>
+        <v>-0.01157892757232556</v>
       </c>
       <c r="C41">
-        <v>0.02278189421857175</v>
+        <v>-0.001362068910677375</v>
       </c>
       <c r="D41">
-        <v>0.00979304383143036</v>
+        <v>0.00370485683771604</v>
       </c>
       <c r="E41">
-        <v>0.003012241152472999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002959585994429309</v>
+      </c>
+      <c r="F41">
+        <v>-0.007877123521374594</v>
+      </c>
+      <c r="G41">
+        <v>-0.02687073321145583</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09335898644949506</v>
+        <v>-0.01434076818188736</v>
       </c>
       <c r="C42">
-        <v>0.001616508170200396</v>
+        <v>-0.03989860092262146</v>
       </c>
       <c r="D42">
-        <v>-0.2675524571776874</v>
+        <v>0.09418749257086427</v>
       </c>
       <c r="E42">
-        <v>-0.2870856499333972</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.03340566897415167</v>
+      </c>
+      <c r="F42">
+        <v>-0.04009744155055664</v>
+      </c>
+      <c r="G42">
+        <v>0.1684112403640838</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007476261064680776</v>
+        <v>-0.02929464748054594</v>
       </c>
       <c r="C43">
-        <v>0.02721396362851032</v>
+        <v>-0.01218395106153755</v>
       </c>
       <c r="D43">
-        <v>0.01395583695808069</v>
+        <v>0.004832816031613613</v>
       </c>
       <c r="E43">
-        <v>-0.003783797660009073</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007921158371348127</v>
+      </c>
+      <c r="F43">
+        <v>-0.00128109665142197</v>
+      </c>
+      <c r="G43">
+        <v>-0.04026035016953199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003546893773224649</v>
+        <v>-0.01779779921141464</v>
       </c>
       <c r="C44">
-        <v>0.01023844898520733</v>
+        <v>-0.04775999903965309</v>
       </c>
       <c r="D44">
-        <v>-0.02691630221036792</v>
+        <v>0.006068953718508105</v>
       </c>
       <c r="E44">
-        <v>0.002757231152894963</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01626941472338803</v>
+      </c>
+      <c r="F44">
+        <v>0.000224393189060901</v>
+      </c>
+      <c r="G44">
+        <v>-0.05984632712882196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01124426939926855</v>
+        <v>-0.007326035651317517</v>
       </c>
       <c r="C46">
-        <v>0.01988963104691904</v>
+        <v>-0.01720814557866534</v>
       </c>
       <c r="D46">
-        <v>-0.0111477093236058</v>
+        <v>0.01141053449463133</v>
       </c>
       <c r="E46">
-        <v>0.003271883400486995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.006564840472772599</v>
+      </c>
+      <c r="F46">
+        <v>-0.0171170383149796</v>
+      </c>
+      <c r="G46">
+        <v>-0.04546383701207071</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0033641184498558</v>
+        <v>-0.07681943307860666</v>
       </c>
       <c r="C47">
-        <v>0.0579741300474774</v>
+        <v>-0.06294723294970847</v>
       </c>
       <c r="D47">
-        <v>-0.0563886628371917</v>
+        <v>-0.005320050740451504</v>
       </c>
       <c r="E47">
-        <v>0.001230042638510549</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01173878212320085</v>
+      </c>
+      <c r="F47">
+        <v>-0.05501434593549333</v>
+      </c>
+      <c r="G47">
+        <v>-0.04252323336453661</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003828718399849855</v>
+        <v>-0.02118278354644988</v>
       </c>
       <c r="C48">
-        <v>0.02960404159974051</v>
+        <v>-0.009864309657343136</v>
       </c>
       <c r="D48">
-        <v>-0.01045972404745638</v>
+        <v>0.0007327917868333448</v>
       </c>
       <c r="E48">
-        <v>0.004184126213678013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004894342547951833</v>
+      </c>
+      <c r="F48">
+        <v>-0.01832700220036058</v>
+      </c>
+      <c r="G48">
+        <v>-0.04493903607443364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.005047021233496195</v>
+        <v>-0.07938231228374948</v>
       </c>
       <c r="C50">
-        <v>0.05487649068084607</v>
+        <v>-0.06464942895434518</v>
       </c>
       <c r="D50">
-        <v>-0.06062988285487017</v>
+        <v>-0.003615809603306669</v>
       </c>
       <c r="E50">
-        <v>0.03237946366127428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01605258063977649</v>
+      </c>
+      <c r="F50">
+        <v>-0.05779921404548016</v>
+      </c>
+      <c r="G50">
+        <v>-0.06809823461643111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007557415290891076</v>
+        <v>-0.01327927130716239</v>
       </c>
       <c r="C51">
-        <v>0.02114218565248179</v>
+        <v>-0.03231719019757517</v>
       </c>
       <c r="D51">
-        <v>0.00403116922339536</v>
+        <v>0.00967842118372504</v>
       </c>
       <c r="E51">
-        <v>0.003638523310657918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.0125811687437648</v>
+      </c>
+      <c r="F51">
+        <v>0.02988553820793316</v>
+      </c>
+      <c r="G51">
+        <v>-0.06685001723276877</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.006335526859110112</v>
+        <v>-0.08457832107385843</v>
       </c>
       <c r="C53">
-        <v>0.07048860341726022</v>
+        <v>-0.07661583474478455</v>
       </c>
       <c r="D53">
-        <v>-0.1171492071066929</v>
+        <v>-0.004899760580146018</v>
       </c>
       <c r="E53">
-        <v>0.009785333595926645</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0357239437970274</v>
+      </c>
+      <c r="F53">
+        <v>-0.05952467137123431</v>
+      </c>
+      <c r="G53">
+        <v>-0.03897563404724597</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0007783678598942895</v>
+        <v>-0.0330926876825426</v>
       </c>
       <c r="C54">
-        <v>0.03700196614333827</v>
+        <v>-0.01218045529391694</v>
       </c>
       <c r="D54">
-        <v>0.008685789939152326</v>
+        <v>-0.002966293949545206</v>
       </c>
       <c r="E54">
-        <v>0.01128645816094462</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0009987406966742189</v>
+      </c>
+      <c r="F54">
+        <v>-0.005888151195284487</v>
+      </c>
+      <c r="G54">
+        <v>-0.04970586060985629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003287174722200414</v>
+        <v>-0.07343709790453873</v>
       </c>
       <c r="C55">
-        <v>0.0522421065599303</v>
+        <v>-0.06867388240075778</v>
       </c>
       <c r="D55">
-        <v>-0.1005272881561777</v>
+        <v>-0.005371686291056615</v>
       </c>
       <c r="E55">
-        <v>-0.003127645373339923</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02716993386914207</v>
+      </c>
+      <c r="F55">
+        <v>-0.05824762266887075</v>
+      </c>
+      <c r="G55">
+        <v>-0.02223947316747266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.005182599806319237</v>
+        <v>-0.1440098073794824</v>
       </c>
       <c r="C56">
-        <v>0.09927134313866018</v>
+        <v>-0.1016580225325888</v>
       </c>
       <c r="D56">
-        <v>-0.1477817219542498</v>
+        <v>-0.01308872400306914</v>
       </c>
       <c r="E56">
-        <v>0.0004445185465076745</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0398448635198576</v>
+      </c>
+      <c r="F56">
+        <v>-0.08046634029481507</v>
+      </c>
+      <c r="G56">
+        <v>-0.008515894581708996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02455961958661825</v>
+        <v>-0.009304321708311511</v>
       </c>
       <c r="C57">
-        <v>0.0236032199647588</v>
+        <v>-0.009115522653392232</v>
       </c>
       <c r="D57">
-        <v>-0.03998544861892994</v>
+        <v>0.0235854963196982</v>
       </c>
       <c r="E57">
-        <v>-0.003632707038450055</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02757423283114489</v>
+      </c>
+      <c r="F57">
+        <v>0.01135879296157285</v>
+      </c>
+      <c r="G57">
+        <v>-0.02372126616478677</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0134797446710778</v>
+        <v>-0.08211489965146328</v>
       </c>
       <c r="C58">
-        <v>0.1013012470884439</v>
+        <v>-0.03046123954513735</v>
       </c>
       <c r="D58">
-        <v>-0.09300103223307149</v>
+        <v>0.01719233956395781</v>
       </c>
       <c r="E58">
-        <v>-0.203878997216117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9396844570044894</v>
+      </c>
+      <c r="F58">
+        <v>-0.2459098105280096</v>
+      </c>
+      <c r="G58">
+        <v>0.02691636132072566</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03534514063661139</v>
+        <v>-0.1569123126941081</v>
       </c>
       <c r="C59">
-        <v>0.2465007314634218</v>
+        <v>0.2132795105299034</v>
       </c>
       <c r="D59">
-        <v>0.1747450276861028</v>
+        <v>-0.01531174019277511</v>
       </c>
       <c r="E59">
-        <v>-0.002960507732108297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.005218588030500469</v>
+      </c>
+      <c r="F59">
+        <v>0.007280767597761485</v>
+      </c>
+      <c r="G59">
+        <v>-0.02133296296466632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03901436183146758</v>
+        <v>-0.2856864490199338</v>
       </c>
       <c r="C60">
-        <v>0.1686621085819375</v>
+        <v>-0.09890724451183124</v>
       </c>
       <c r="D60">
-        <v>-0.07013251229278063</v>
+        <v>0.01307874187645919</v>
       </c>
       <c r="E60">
-        <v>-0.0364322564660868</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.00160168270660067</v>
+      </c>
+      <c r="F60">
+        <v>0.3395555356319645</v>
+      </c>
+      <c r="G60">
+        <v>0.09562964676601596</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003655596453540097</v>
+        <v>-0.03675185589674897</v>
       </c>
       <c r="C61">
-        <v>0.01160824334971434</v>
+        <v>-0.06518813215754515</v>
       </c>
       <c r="D61">
-        <v>-0.0642268774925584</v>
+        <v>0.005608239089299449</v>
       </c>
       <c r="E61">
-        <v>-0.001561802099245421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01107582573363278</v>
+      </c>
+      <c r="F61">
+        <v>0.02053051911840239</v>
+      </c>
+      <c r="G61">
+        <v>-0.04072327163741082</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007621718665251707</v>
+        <v>-0.01461496772348988</v>
       </c>
       <c r="C63">
-        <v>0.009949962789775993</v>
+        <v>-0.02811515576736989</v>
       </c>
       <c r="D63">
-        <v>-0.008636080634378875</v>
+        <v>0.00787374312628007</v>
       </c>
       <c r="E63">
-        <v>0.00861313370386849</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.004641724348201898</v>
+      </c>
+      <c r="F63">
+        <v>-0.01602598722802865</v>
+      </c>
+      <c r="G63">
+        <v>-0.04914838394711134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00817275728269916</v>
+        <v>-0.05234778320847389</v>
       </c>
       <c r="C64">
-        <v>0.03309915005102076</v>
+        <v>-0.04382507132598126</v>
       </c>
       <c r="D64">
-        <v>-0.06513078799279387</v>
+        <v>0.005444125881116507</v>
       </c>
       <c r="E64">
-        <v>-0.01214539619687988</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006885400524968466</v>
+      </c>
+      <c r="F64">
+        <v>0.004996890535190025</v>
+      </c>
+      <c r="G64">
+        <v>-0.03342708732265377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0166891251001736</v>
+        <v>-0.08400048839054106</v>
       </c>
       <c r="C65">
-        <v>0.01188127804961359</v>
+        <v>-0.05668161657791294</v>
       </c>
       <c r="D65">
-        <v>-0.1030529490401199</v>
+        <v>0.01493138025449033</v>
       </c>
       <c r="E65">
-        <v>0.009817186334639518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01774919286044228</v>
+      </c>
+      <c r="F65">
+        <v>0.02872361484934757</v>
+      </c>
+      <c r="G65">
+        <v>-0.01610410772012066</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.00538545781493875</v>
+        <v>-0.05325203158084589</v>
       </c>
       <c r="C66">
-        <v>-0.006005487347737225</v>
+        <v>-0.1124015100200412</v>
       </c>
       <c r="D66">
-        <v>-0.1198103749017171</v>
+        <v>0.01202712133899785</v>
       </c>
       <c r="E66">
-        <v>-0.01753798306880994</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02688435186180718</v>
+      </c>
+      <c r="F66">
+        <v>0.03705222068701909</v>
+      </c>
+      <c r="G66">
+        <v>-0.04125086409487591</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.002545156356675596</v>
+        <v>-0.05415872501066283</v>
       </c>
       <c r="C67">
-        <v>0.05963223462518955</v>
+        <v>-0.03175837907710074</v>
       </c>
       <c r="D67">
-        <v>-0.03548329365240996</v>
+        <v>-0.005627189740373616</v>
       </c>
       <c r="E67">
-        <v>0.001998208239190981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003270697644390064</v>
+      </c>
+      <c r="F67">
+        <v>-0.01299178776484226</v>
+      </c>
+      <c r="G67">
+        <v>-0.04251833228234637</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05268877423757664</v>
+        <v>-0.1390055476325183</v>
       </c>
       <c r="C68">
-        <v>0.2215208096997402</v>
+        <v>0.273294561097717</v>
       </c>
       <c r="D68">
-        <v>0.1640900769830595</v>
+        <v>0.00276521875203569</v>
       </c>
       <c r="E68">
-        <v>-0.006968138482377108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005021909142467391</v>
+      </c>
+      <c r="F68">
+        <v>-0.03044903263875649</v>
+      </c>
+      <c r="G68">
+        <v>-0.02342467382362357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.001381281970580915</v>
+        <v>-0.079002465365268</v>
       </c>
       <c r="C69">
-        <v>0.04796147280589851</v>
+        <v>-0.06587119487254192</v>
       </c>
       <c r="D69">
-        <v>-0.05867348590964229</v>
+        <v>-0.009145338732209421</v>
       </c>
       <c r="E69">
-        <v>0.002050833370801071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.0287266816379636</v>
+      </c>
+      <c r="F69">
+        <v>-0.03809366807592909</v>
+      </c>
+      <c r="G69">
+        <v>-0.04659063099135005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03855219491022397</v>
+        <v>-0.1310864196687129</v>
       </c>
       <c r="C71">
-        <v>0.1952222812941253</v>
+        <v>0.236763989108263</v>
       </c>
       <c r="D71">
-        <v>0.1481657959938727</v>
+        <v>-0.006030287697637446</v>
       </c>
       <c r="E71">
-        <v>0.006507876462402058</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02339281978137912</v>
+      </c>
+      <c r="F71">
+        <v>-0.007655932708049842</v>
+      </c>
+      <c r="G71">
+        <v>-0.03870914117414619</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0001976750789496131</v>
+        <v>-0.08653751629325752</v>
       </c>
       <c r="C72">
-        <v>0.05575231643715792</v>
+        <v>-0.07226019522655899</v>
       </c>
       <c r="D72">
-        <v>-0.1325690486742822</v>
+        <v>-0.00777882055326341</v>
       </c>
       <c r="E72">
-        <v>-0.01671946097273315</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003079431766978477</v>
+      </c>
+      <c r="F72">
+        <v>0.04568275959436179</v>
+      </c>
+      <c r="G72">
+        <v>-0.01993103214809864</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05147326939181347</v>
+        <v>-0.3998939479831523</v>
       </c>
       <c r="C73">
-        <v>0.1928437349174772</v>
+        <v>-0.1167753462787661</v>
       </c>
       <c r="D73">
-        <v>-0.1684570128122615</v>
+        <v>0.02112919715581233</v>
       </c>
       <c r="E73">
-        <v>-0.09072729388177228</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06921383787302862</v>
+      </c>
+      <c r="F73">
+        <v>0.5525863391330487</v>
+      </c>
+      <c r="G73">
+        <v>0.1690104363573653</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.002352550042857384</v>
+        <v>-0.1134084757769863</v>
       </c>
       <c r="C74">
-        <v>0.08865743459111347</v>
+        <v>-0.1130257872495507</v>
       </c>
       <c r="D74">
-        <v>-0.1570171240807144</v>
+        <v>-0.01017616815989885</v>
       </c>
       <c r="E74">
-        <v>-0.005661478313120786</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01818456153774443</v>
+      </c>
+      <c r="F74">
+        <v>-0.07591636472571787</v>
+      </c>
+      <c r="G74">
+        <v>-0.04739818679748233</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0093333540724925</v>
+        <v>-0.2489898089032104</v>
       </c>
       <c r="C75">
-        <v>0.1986209070116003</v>
+        <v>-0.1446691527092556</v>
       </c>
       <c r="D75">
-        <v>-0.277203141534122</v>
+        <v>-0.03038420931915898</v>
       </c>
       <c r="E75">
-        <v>-0.01716063416362589</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.0588665943979065</v>
+      </c>
+      <c r="F75">
+        <v>-0.1853489646958507</v>
+      </c>
+      <c r="G75">
+        <v>0.04436665575949282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001258194613957461</v>
+        <v>-0.1284370344352801</v>
       </c>
       <c r="C76">
-        <v>0.1303763787581125</v>
+        <v>-0.1121514749272584</v>
       </c>
       <c r="D76">
-        <v>-0.2267754644651146</v>
+        <v>-0.02127307200388116</v>
       </c>
       <c r="E76">
-        <v>0.01326495905345023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.05018287209926825</v>
+      </c>
+      <c r="F76">
+        <v>-0.1205134413240884</v>
+      </c>
+      <c r="G76">
+        <v>-0.02190089311635135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01225366187204627</v>
+        <v>-0.06622857029347796</v>
       </c>
       <c r="C77">
-        <v>0.02138652318980365</v>
+        <v>-0.05930401333304802</v>
       </c>
       <c r="D77">
-        <v>-0.0513971850175821</v>
+        <v>0.01228041266462318</v>
       </c>
       <c r="E77">
-        <v>-0.00709824427841531</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04937530342861172</v>
+      </c>
+      <c r="F77">
+        <v>0.009788124751282417</v>
+      </c>
+      <c r="G77">
+        <v>-0.05270435938896081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004712709219765166</v>
+        <v>-0.04354432635459626</v>
       </c>
       <c r="C78">
-        <v>0.01748263555794691</v>
+        <v>-0.0510013220378023</v>
       </c>
       <c r="D78">
-        <v>-0.06379408619355408</v>
+        <v>0.005597929290974451</v>
       </c>
       <c r="E78">
-        <v>3.615015203557567e-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.0207420511317309</v>
+      </c>
+      <c r="F78">
+        <v>0.03839620243662741</v>
+      </c>
+      <c r="G78">
+        <v>-0.04713365417559411</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01619041326652877</v>
+        <v>-0.05501183674351839</v>
       </c>
       <c r="C80">
-        <v>0.097062470150149</v>
+        <v>-0.06278862851439805</v>
       </c>
       <c r="D80">
-        <v>-0.152864080121111</v>
+        <v>0.01274921580361744</v>
       </c>
       <c r="E80">
-        <v>0.9112363786446004</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02958915323782586</v>
+      </c>
+      <c r="F80">
+        <v>0.02721236115492149</v>
+      </c>
+      <c r="G80">
+        <v>-0.8447705282398734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.006477758715433903</v>
+        <v>-0.1446736536029622</v>
       </c>
       <c r="C81">
-        <v>0.1216485107809389</v>
+        <v>-0.08730516036495786</v>
       </c>
       <c r="D81">
-        <v>-0.1661057864755017</v>
+        <v>-0.01581921006865531</v>
       </c>
       <c r="E81">
-        <v>0.002118471966256604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03539452770227124</v>
+      </c>
+      <c r="F81">
+        <v>-0.1261531275611094</v>
+      </c>
+      <c r="G81">
+        <v>-0.02043238782082115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1091056063869102</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.05279995701919253</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.005827007316354556</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.07901474269845722</v>
+      </c>
+      <c r="F82">
+        <v>-0.01673747073484722</v>
+      </c>
+      <c r="G82">
+        <v>-0.02852545014747067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007160647112675282</v>
+        <v>-0.02972651126800751</v>
       </c>
       <c r="C83">
-        <v>0.02463497534609015</v>
+        <v>-0.02246882490256634</v>
       </c>
       <c r="D83">
-        <v>-0.02194198360321487</v>
+        <v>0.00589341099612388</v>
       </c>
       <c r="E83">
-        <v>-0.001012425937485517</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02809791856157836</v>
+      </c>
+      <c r="F83">
+        <v>0.03503270200763844</v>
+      </c>
+      <c r="G83">
+        <v>-0.03367748159955462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01561331753370189</v>
+        <v>-0.2229715079119849</v>
       </c>
       <c r="C85">
-        <v>0.154912272285445</v>
+        <v>-0.1407373616202729</v>
       </c>
       <c r="D85">
-        <v>-0.2586133480718407</v>
+        <v>-0.01848334521800097</v>
       </c>
       <c r="E85">
-        <v>-0.02221912071546806</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0993337454746677</v>
+      </c>
+      <c r="F85">
+        <v>-0.1489358137126099</v>
+      </c>
+      <c r="G85">
+        <v>0.07595576777729213</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.00767930887588271</v>
+        <v>-0.01645195744920806</v>
       </c>
       <c r="C86">
-        <v>0.02759388212985221</v>
+        <v>-0.02171632569652494</v>
       </c>
       <c r="D86">
-        <v>-0.01164628438438989</v>
+        <v>0.01095239325530029</v>
       </c>
       <c r="E86">
-        <v>-0.02669991034901109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03837735836445454</v>
+      </c>
+      <c r="F86">
+        <v>0.04680435766216429</v>
+      </c>
+      <c r="G86">
+        <v>-0.08446782818882474</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007872789163676489</v>
+        <v>-0.02043849221082774</v>
       </c>
       <c r="C87">
-        <v>0.01618051671808208</v>
+        <v>-0.02461668961977091</v>
       </c>
       <c r="D87">
-        <v>-0.04323995860795731</v>
+        <v>0.01103753256159023</v>
       </c>
       <c r="E87">
-        <v>-0.004732651540174811</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08312870973655086</v>
+      </c>
+      <c r="F87">
+        <v>0.02496257491183628</v>
+      </c>
+      <c r="G87">
+        <v>-0.06254935635808195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02753093650609373</v>
+        <v>-0.09231863567569221</v>
       </c>
       <c r="C88">
-        <v>0.0367016168611447</v>
+        <v>-0.06264567053664546</v>
       </c>
       <c r="D88">
-        <v>-0.03633337933473796</v>
+        <v>0.02228039723521717</v>
       </c>
       <c r="E88">
-        <v>0.0002260859988451823</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01719180907233942</v>
+      </c>
+      <c r="F88">
+        <v>-0.02251509710188979</v>
+      </c>
+      <c r="G88">
+        <v>-0.03884821868483024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07303647169313851</v>
+        <v>-0.2145178712096261</v>
       </c>
       <c r="C89">
-        <v>0.3586145732357673</v>
+        <v>0.3727903200592861</v>
       </c>
       <c r="D89">
-        <v>0.2527718196327282</v>
+        <v>-0.005004926731655352</v>
       </c>
       <c r="E89">
-        <v>-0.01212586448190777</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02192814784345527</v>
+      </c>
+      <c r="F89">
+        <v>-0.02138589640960344</v>
+      </c>
+      <c r="G89">
+        <v>-0.03443433728830098</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05571647888959783</v>
+        <v>-0.1938728474327822</v>
       </c>
       <c r="C90">
-        <v>0.2748332539001098</v>
+        <v>0.3328858198218491</v>
       </c>
       <c r="D90">
-        <v>0.2262699746546616</v>
+        <v>-0.009248851187034167</v>
       </c>
       <c r="E90">
-        <v>-0.01707799901445708</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02175732631378652</v>
+      </c>
+      <c r="F90">
+        <v>-0.04132661330580118</v>
+      </c>
+      <c r="G90">
+        <v>-0.005866722792011692</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.005551223236899511</v>
+        <v>-0.1968925801100404</v>
       </c>
       <c r="C91">
-        <v>0.1715119177740759</v>
+        <v>-0.1303290605761688</v>
       </c>
       <c r="D91">
-        <v>-0.2339833627658665</v>
+        <v>-0.02405181027071177</v>
       </c>
       <c r="E91">
-        <v>-0.002422435053147331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07391947312115987</v>
+      </c>
+      <c r="F91">
+        <v>-0.1571620095247986</v>
+      </c>
+      <c r="G91">
+        <v>-0.00301951879394611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.02264959045118507</v>
+        <v>-0.1984571731760938</v>
       </c>
       <c r="C92">
-        <v>0.3100232486487521</v>
+        <v>0.2685410525532927</v>
       </c>
       <c r="D92">
-        <v>0.1082462907525616</v>
+        <v>-0.04535285499662442</v>
       </c>
       <c r="E92">
-        <v>-0.003387410374952817</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.003910985589654438</v>
+      </c>
+      <c r="F92">
+        <v>-0.06201490351651562</v>
+      </c>
+      <c r="G92">
+        <v>-0.07668330940564072</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.05386664250606098</v>
+        <v>-0.221580453459463</v>
       </c>
       <c r="C93">
-        <v>0.3064610230070563</v>
+        <v>0.3275774850037126</v>
       </c>
       <c r="D93">
-        <v>0.2205681128128962</v>
+        <v>-0.01616182577612487</v>
       </c>
       <c r="E93">
-        <v>-0.03349565240586632</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.009557174536171305</v>
+      </c>
+      <c r="F93">
+        <v>-0.03543135196838199</v>
+      </c>
+      <c r="G93">
+        <v>-0.005893606364052263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02829702833411513</v>
+        <v>-0.3073576531716524</v>
       </c>
       <c r="C94">
-        <v>0.2022646397333457</v>
+        <v>-0.1738885932986856</v>
       </c>
       <c r="D94">
-        <v>-0.2380364716630086</v>
+        <v>-0.01694511884416751</v>
       </c>
       <c r="E94">
-        <v>-0.04120876698599207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.158694102260134</v>
+      </c>
+      <c r="F94">
+        <v>-0.4916394464444321</v>
+      </c>
+      <c r="G94">
+        <v>0.1925194411389284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004461880647065021</v>
+        <v>-0.09124674227824452</v>
       </c>
       <c r="C95">
-        <v>0.04697385807395393</v>
+        <v>-0.08840817545651541</v>
       </c>
       <c r="D95">
-        <v>-0.0928219274062648</v>
+        <v>-0.006550728279461735</v>
       </c>
       <c r="E95">
-        <v>-0.1093861440820828</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07454608649898116</v>
+      </c>
+      <c r="F95">
+        <v>0.194427323892849</v>
+      </c>
+      <c r="G95">
+        <v>0.07941104176384862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01253614408400175</v>
+        <v>-0.2000265336502372</v>
       </c>
       <c r="C98">
-        <v>0.1674751853803125</v>
+        <v>-0.04345350026282447</v>
       </c>
       <c r="D98">
-        <v>-0.1172606726123952</v>
+        <v>-0.01247636075842317</v>
       </c>
       <c r="E98">
-        <v>-0.05542305444558546</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06923774881379667</v>
+      </c>
+      <c r="F98">
+        <v>0.2437907182994724</v>
+      </c>
+      <c r="G98">
+        <v>0.02794575575485721</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007877410865300234</v>
+        <v>-0.01189296089676899</v>
       </c>
       <c r="C101">
-        <v>0.01975690361044217</v>
+        <v>-0.01982272167172227</v>
       </c>
       <c r="D101">
-        <v>-0.01017866468196257</v>
+        <v>0.007203495663021249</v>
       </c>
       <c r="E101">
-        <v>0.009441276461006331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.008151668748171822</v>
+      </c>
+      <c r="F101">
+        <v>-0.0149877925341444</v>
+      </c>
+      <c r="G101">
+        <v>-0.04710726346274529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01699614154449445</v>
+        <v>-0.1204315301752895</v>
       </c>
       <c r="C102">
-        <v>0.08834642059331076</v>
+        <v>-0.07995418024399892</v>
       </c>
       <c r="D102">
-        <v>-0.1221352251595491</v>
+        <v>0.0009715852230176702</v>
       </c>
       <c r="E102">
-        <v>-0.006949479892685396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03335534316317803</v>
+      </c>
+      <c r="F102">
+        <v>-0.04119483249467147</v>
+      </c>
+      <c r="G102">
+        <v>0.002246012533300427</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001467392962870823</v>
+        <v>-0.003200481365532729</v>
       </c>
       <c r="C103">
-        <v>0.01057311767941756</v>
+        <v>-0.004457990377588019</v>
       </c>
       <c r="D103">
-        <v>-0.02461288404982345</v>
+        <v>0.0001462236585193724</v>
       </c>
       <c r="E103">
-        <v>0.0141583417252194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002117879314633554</v>
+      </c>
+      <c r="F103">
+        <v>-0.008408303287330833</v>
+      </c>
+      <c r="G103">
+        <v>-0.0146551163514458</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9788387877531357</v>
+        <v>-0.02620781479416971</v>
       </c>
       <c r="C104">
-        <v>-0.1538363091265125</v>
+        <v>0.03877676631457967</v>
       </c>
       <c r="D104">
-        <v>0.002864269161719693</v>
+        <v>0.9873294187202954</v>
       </c>
       <c r="E104">
-        <v>0.02634312417996578</v>
+        <v>-0.04193782647624932</v>
+      </c>
+      <c r="F104">
+        <v>-0.04334240375714243</v>
+      </c>
+      <c r="G104">
+        <v>0.01330744499355579</v>
       </c>
     </row>
   </sheetData>
